--- a/docs/architecture_design.xlsx
+++ b/docs/architecture_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\CloudNative\OnGit\cd0309-message-passing-projects-starter\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF313D8-247F-42E9-A0F1-A082F27F553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922D6AD-86D1-4CCA-A471-B4146C370F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F44DE92-20EA-474C-8E86-E8E57FCA9262}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,13 +100,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -120,7 +121,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6886575" y="866775"/>
+          <a:off x="6886575" y="885825"/>
           <a:ext cx="1524000" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -160,21 +161,8 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>User</a:t>
+            <a:t>FrontEnd</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Device</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -182,16 +170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -206,7 +194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8934450" y="2428875"/>
+          <a:off x="9525000" y="2438400"/>
           <a:ext cx="733425" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -440,16 +428,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -464,7 +452,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315324" y="3790950"/>
+          <a:off x="8905874" y="3800475"/>
           <a:ext cx="1971676" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDrum">
@@ -771,16 +759,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -795,7 +783,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8934450" y="4343400"/>
+          <a:off x="9525000" y="4352925"/>
           <a:ext cx="733425" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -859,8 +847,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -884,8 +872,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5129212" y="1504950"/>
-          <a:ext cx="2519363" cy="1209675"/>
+          <a:off x="5129212" y="1524000"/>
+          <a:ext cx="2519363" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -973,8 +961,8 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -998,8 +986,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7643812" y="1504950"/>
-          <a:ext cx="4763" cy="1209675"/>
+          <a:off x="7643812" y="1524000"/>
+          <a:ext cx="4763" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1085,16 +1073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1106,14 +1094,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
+          <a:stCxn id="18" idx="2"/>
           <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7648575" y="1504950"/>
-          <a:ext cx="1652587" cy="1181100"/>
+        <a:xfrm flipH="1">
+          <a:off x="9891712" y="1485900"/>
+          <a:ext cx="4763" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1142,16 +1130,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1164,12 +1152,11 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="7" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9301162" y="3419475"/>
+          <a:off x="9891712" y="3429000"/>
           <a:ext cx="0" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1198,16 +1185,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1225,7 +1212,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9301162" y="4219575"/>
+          <a:off x="9891712" y="4229100"/>
           <a:ext cx="0" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1257,11 +1244,11 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>347662</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
@@ -1281,8 +1268,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7662862" y="5334000"/>
-          <a:ext cx="1638300" cy="581024"/>
+          <a:off x="7662862" y="5343525"/>
+          <a:ext cx="2228850" cy="571499"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1477,16 +1464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295273</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371473</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1500,9 +1487,9 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="2280931">
-          <a:off x="8220073" y="1981199"/>
-          <a:ext cx="1295400" cy="247650"/>
+        <a:xfrm>
+          <a:off x="5867398" y="2781299"/>
+          <a:ext cx="1028702" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1586,16 +1573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371472</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1610,8 +1597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5857872" y="2743199"/>
-          <a:ext cx="885828" cy="247650"/>
+          <a:off x="10010775" y="1933574"/>
+          <a:ext cx="571500" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1641,7 +1628,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1683,16 +1670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>238121</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219071</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1707,7 +1694,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9382121" y="3467099"/>
+          <a:off x="9972671" y="3476624"/>
           <a:ext cx="1219203" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1780,16 +1767,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247646</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228596</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1804,7 +1791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9391646" y="4276724"/>
+          <a:off x="9982196" y="4286249"/>
           <a:ext cx="1219203" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1979,6 +1966,92 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F96865E-D84D-857C-4E97-80CFF728F7E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9134475" y="847725"/>
+          <a:ext cx="1524000" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Device</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2306,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996D3342-A033-451C-93E5-652C1BB77059}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/architecture_design.xlsx
+++ b/docs/architecture_design.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\CloudNative\OnGit\cd0309-message-passing-projects-starter\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922D6AD-86D1-4CCA-A471-B4146C370F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1618764-CE80-412F-86AF-D9EBF1560971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F44DE92-20EA-474C-8E86-E8E57FCA9262}"/>
+    <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="15720" xr2:uid="{4F44DE92-20EA-474C-8E86-E8E57FCA9262}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1074,13 +1073,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>138112</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1099,9 +1098,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9891712" y="1485900"/>
-          <a:ext cx="4763" cy="1209675"/>
+        <a:xfrm>
+          <a:off x="9886950" y="1485900"/>
+          <a:ext cx="4762" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1974,13 +1973,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1997,7 +1996,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9134475" y="847725"/>
+          <a:off x="9124950" y="847725"/>
           <a:ext cx="1524000" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2380,7 +2379,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
